--- a/PrisonersDilemma/experiment3/contest4/type_average4.xlsx
+++ b/PrisonersDilemma/experiment3/contest4/type_average4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="4700" windowWidth="36920" windowHeight="17680" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="36460" windowHeight="19920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="session_average.csv" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>WSLS</t>
   </si>
@@ -69,13 +69,30 @@
     <t>Other kandori</t>
   </si>
   <si>
-    <t>kandori</t>
-  </si>
-  <si>
     <t>タイプ別平均</t>
     <rPh sb="4" eb="6">
       <t>ヘイキン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>total</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -126,7 +143,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +168,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDE9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBF1DE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -161,7 +196,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -169,29 +204,57 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="19">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="18" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -520,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y53"/>
+  <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:F48"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -532,10 +595,10 @@
       <c r="B1">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="1">
         <v>3</v>
       </c>
       <c r="E1">
@@ -544,52 +607,52 @@
       <c r="F1">
         <v>5</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="2">
         <v>7</v>
       </c>
       <c r="I1">
         <v>8</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="2">
         <v>9</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="2">
         <v>10</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="2">
         <v>11</v>
       </c>
       <c r="M1">
         <v>12</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <v>13</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="1">
         <v>14</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="1">
         <v>15</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="1">
         <v>16</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="2">
         <v>17</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="1">
         <v>18</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="2">
         <v>19</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="1">
         <v>20</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="1">
         <v>21</v>
       </c>
       <c r="W1">
@@ -680,7 +743,7 @@
       </c>
     </row>
     <row r="3" spans="1:25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1">
@@ -757,7 +820,7 @@
       </c>
     </row>
     <row r="4" spans="1:25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -988,7 +1051,7 @@
       </c>
     </row>
     <row r="7" spans="1:25">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1">
@@ -1065,7 +1128,7 @@
       </c>
     </row>
     <row r="8" spans="1:25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2">
@@ -1219,7 +1282,7 @@
       </c>
     </row>
     <row r="10" spans="1:25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2">
@@ -1296,7 +1359,7 @@
       </c>
     </row>
     <row r="11" spans="1:25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2">
@@ -1373,7 +1436,7 @@
       </c>
     </row>
     <row r="12" spans="1:25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2">
@@ -1527,7 +1590,7 @@
       </c>
     </row>
     <row r="14" spans="1:25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3">
@@ -1604,7 +1667,7 @@
       </c>
     </row>
     <row r="15" spans="1:25">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1">
@@ -1681,7 +1744,7 @@
       </c>
     </row>
     <row r="16" spans="1:25">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1">
@@ -1758,7 +1821,7 @@
       </c>
     </row>
     <row r="17" spans="1:25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1">
@@ -1835,7 +1898,7 @@
       </c>
     </row>
     <row r="18" spans="1:25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2">
@@ -1912,7 +1975,7 @@
       </c>
     </row>
     <row r="19" spans="1:25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1">
@@ -1989,7 +2052,7 @@
       </c>
     </row>
     <row r="20" spans="1:25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2">
@@ -2066,7 +2129,7 @@
       </c>
     </row>
     <row r="21" spans="1:25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1">
@@ -2143,7 +2206,7 @@
       </c>
     </row>
     <row r="22" spans="1:25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1">
@@ -2450,6 +2513,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="11"/>
+    </row>
     <row r="28" spans="1:25">
       <c r="B28">
         <v>1</v>
@@ -2832,111 +2907,111 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <f>SUM(B5:B6, B9, B13, B23:B25)</f>
+        <f>SUM(B2, B5:B6, B9, B13, B23:B25)</f>
         <v>21.25270697050372</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:Y32" si="3">SUM(C5:C6, C9, C13, C23:C25)</f>
-        <v>23.901462295325416</v>
+        <f t="shared" ref="C32:Y32" si="3">SUM(C2, C5:C6, C9, C13, C23:C25)</f>
+        <v>27.604746711555187</v>
       </c>
       <c r="D32">
         <f t="shared" si="3"/>
-        <v>23.068933168500649</v>
+        <v>26.682611833217841</v>
       </c>
       <c r="E32">
         <f t="shared" si="3"/>
-        <v>23.31470705296827</v>
+        <v>27.107404236141459</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>22.805273076759516</v>
+        <v>26.638967239395551</v>
       </c>
       <c r="G32">
         <f t="shared" si="3"/>
-        <v>26.431317705365451</v>
+        <v>30.340549171006629</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
-        <v>22.419376508574679</v>
+        <v>25.460277594816279</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>22.621026351364041</v>
+        <v>26.437731725658249</v>
       </c>
       <c r="J32">
         <f t="shared" si="3"/>
-        <v>20.025930712862639</v>
+        <v>22.388444559134758</v>
       </c>
       <c r="K32">
         <f t="shared" si="3"/>
-        <v>22.229824272566866</v>
+        <v>25.259950550037278</v>
       </c>
       <c r="L32">
         <f t="shared" si="3"/>
-        <v>25.989096785545005</v>
+        <v>29.502260533337047</v>
       </c>
       <c r="M32">
         <f t="shared" si="3"/>
-        <v>11.244525237384281</v>
+        <v>13.20963991716936</v>
       </c>
       <c r="N32">
         <f t="shared" si="3"/>
-        <v>11.23409982441845</v>
+        <v>12.915939443776939</v>
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>23.9635548270223</v>
+        <v>27.630745749880589</v>
       </c>
       <c r="P32">
         <f t="shared" si="3"/>
-        <v>20.664771963499124</v>
+        <v>23.835465939901031</v>
       </c>
       <c r="Q32">
         <f t="shared" si="3"/>
-        <v>23.901462295325416</v>
+        <v>27.604746711555187</v>
       </c>
       <c r="R32">
         <f t="shared" si="3"/>
-        <v>24.02327074207777</v>
+        <v>27.411207142536878</v>
       </c>
       <c r="S32">
         <f t="shared" si="3"/>
-        <v>16.842019790184661</v>
+        <v>19.511855957913941</v>
       </c>
       <c r="T32">
         <f t="shared" si="3"/>
-        <v>23.282208460490871</v>
+        <v>26.444310229685797</v>
       </c>
       <c r="U32">
         <f t="shared" si="3"/>
-        <v>22.042693516549342</v>
+        <v>25.438519174516038</v>
       </c>
       <c r="V32">
         <f t="shared" si="3"/>
-        <v>23.94375321708155</v>
+        <v>27.63354236520863</v>
       </c>
       <c r="W32">
         <f t="shared" si="3"/>
-        <v>20.5980427401323</v>
+        <v>24.372312280874688</v>
       </c>
       <c r="X32">
         <f t="shared" si="3"/>
-        <v>24.209481579922361</v>
+        <v>28.209814887567848</v>
       </c>
       <c r="Y32">
         <f t="shared" si="3"/>
-        <v>10.341985083521889</v>
+        <v>12.352652630293381</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:9">
       <c r="B35" t="s">
@@ -2997,7 +3072,7 @@
         <v>12.616862686744771</v>
       </c>
       <c r="E37">
-        <f t="shared" ref="E37:E39" si="7">SUM(B30, E30:F30, I30, M30, W30:Y30)</f>
+        <f t="shared" ref="E37:E38" si="7">SUM(B30, E30:F30, I30, M30, W30:Y30)</f>
         <v>157.88689287934048</v>
       </c>
       <c r="F37">
@@ -3036,294 +3111,373 @@
       </c>
       <c r="B39">
         <f t="shared" si="4"/>
-        <v>204.75996877885393</v>
+        <v>236.28278361475509</v>
       </c>
       <c r="C39">
         <f t="shared" si="5"/>
-        <v>137.96970748211783</v>
+        <v>156.46645060954802</v>
       </c>
       <c r="D39">
         <f t="shared" si="6"/>
-        <v>11.23409982441845</v>
+        <v>12.915939443776939</v>
       </c>
       <c r="E39">
-        <f t="shared" si="7"/>
-        <v>156.38774809255636</v>
+        <f>SUM(B32, E32:F32, I32, M32, W32:Y32)</f>
+        <v>179.58122988760428</v>
       </c>
       <c r="F39">
         <f>SUM(B39:E39)/(8*23)</f>
-        <v>2.7736495879236229</v>
+        <v>3.1806869758461103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <f>SUM(B36:B39)</f>
+        <v>688.53660389936385</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:E40" si="8">SUM(C36:C39)</f>
+        <v>440.43817275856668</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="8"/>
+        <v>39.908399521224894</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="8"/>
+        <v>598.61874353074973</v>
+      </c>
+      <c r="F40">
+        <f>(F36*9+F37*6+F38+F39*8)/24</f>
+        <v>3.2019962313585233</v>
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="6" t="s">
+      <c r="I41" s="4"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="5" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B43" s="5">
-        <f>H$43*H43-1</f>
+      <c r="B44" s="4">
+        <f>H$44*H44-1</f>
         <v>80</v>
       </c>
-      <c r="C43" s="5">
-        <f>H$44*H43</f>
+      <c r="C44" s="4">
+        <f>H$45*H44</f>
         <v>54</v>
       </c>
-      <c r="D43" s="5">
-        <f>H$45*H43</f>
+      <c r="D44" s="4">
+        <f>H$46*H44</f>
         <v>9</v>
       </c>
-      <c r="E43" s="5">
-        <f>H$46*H43</f>
+      <c r="E44" s="4">
+        <f>H$47*H44</f>
         <v>72</v>
       </c>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5" t="s">
+      <c r="F44" s="4"/>
+      <c r="G44" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H44" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="5" t="s">
+    <row r="45" spans="1:9">
+      <c r="A45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B44" s="5">
-        <f t="shared" ref="B44:B46" si="8">H$43*H44</f>
+      <c r="B45" s="4">
+        <f>H$44*H45</f>
         <v>54</v>
       </c>
-      <c r="C44" s="5">
-        <f>H$44*H44-1</f>
+      <c r="C45" s="4">
+        <f>H$45*H45-1</f>
         <v>35</v>
       </c>
-      <c r="D44" s="5">
-        <f t="shared" ref="D44:D46" si="9">H$45*H44</f>
+      <c r="D45" s="4">
+        <f>H$46*H45</f>
         <v>6</v>
       </c>
-      <c r="E44" s="5">
-        <f t="shared" ref="E44:E46" si="10">H$46*H44</f>
+      <c r="E45" s="4">
+        <f>H$47*H45</f>
         <v>48</v>
       </c>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5" t="s">
+      <c r="F45" s="4"/>
+      <c r="G45" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H45" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" s="5" t="s">
+    <row r="46" spans="1:9">
+      <c r="A46" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="5">
-        <f t="shared" si="8"/>
+      <c r="B46" s="4">
+        <f>H$44*H46</f>
         <v>9</v>
       </c>
-      <c r="C45" s="5">
-        <f t="shared" ref="C44:C46" si="11">H$44*H45</f>
+      <c r="C46" s="4">
+        <f>H$45*H46</f>
         <v>6</v>
       </c>
-      <c r="D45" s="5">
-        <f>H$45*H45-1</f>
+      <c r="D46" s="4">
+        <f>H$46*H46-1</f>
         <v>0</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E46" s="4">
+        <f>H$47*H46</f>
+        <v>8</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" s="4">
+        <f>H$44*H47</f>
+        <v>72</v>
+      </c>
+      <c r="C47" s="4">
+        <f>H$45*H47</f>
+        <v>48</v>
+      </c>
+      <c r="D47" s="4">
+        <f>H$46*H47</f>
+        <v>8</v>
+      </c>
+      <c r="E47" s="4">
+        <f>H$47*H47-1</f>
+        <v>63</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48" s="4">
+        <f>SUM(B44:B47)</f>
+        <v>215</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" ref="C48:E48" si="9">SUM(C44:C47)</f>
+        <v>143</v>
+      </c>
+      <c r="D48" s="4">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="9"/>
+        <v>191</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48">
+        <f>SUM(H44:H47)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" s="4">
+        <f>B36/B44</f>
+        <v>3.121197699038234</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" ref="C52:E52" si="10">C36/C44</f>
+        <v>3.1719658999208633</v>
+      </c>
+      <c r="D52" s="4">
         <f t="shared" si="10"/>
-        <v>8</v>
-      </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5" t="s">
+        <v>1.5972885989670209</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="10"/>
+        <v>3.2410823452605317</v>
+      </c>
+      <c r="F52">
+        <v>3.230509665547086</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="4">
+        <f t="shared" ref="B53:E53" si="11">B37/B45</f>
+        <v>3.1563881855360334</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="11"/>
+        <v>2.745320385106286</v>
+      </c>
+      <c r="D53" s="4">
+        <f t="shared" si="11"/>
+        <v>2.102810447790795</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="11"/>
+        <v>3.2893102683195932</v>
+      </c>
+      <c r="F53">
+        <v>3.1669197903170367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H45" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="5" t="s">
+      <c r="B54" s="4">
+        <f t="shared" ref="B54:E54" si="12">B38/B46</f>
+        <v>3.5681158158449069</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="12"/>
+        <v>2.7665583457620087</v>
+      </c>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4">
+        <f t="shared" si="12"/>
+        <v>3.47408648813084</v>
+      </c>
+      <c r="F54">
+        <v>3.3263080140096926</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="5">
-        <f t="shared" si="8"/>
-        <v>72</v>
-      </c>
-      <c r="C46" s="5">
-        <f t="shared" si="11"/>
-        <v>48</v>
-      </c>
-      <c r="D46" s="5">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="E46" s="5">
-        <f>H$46*H46-1</f>
-        <v>63</v>
-      </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F49" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" s="5">
-        <f>B36/B43</f>
-        <v>3.121197699038234</v>
-      </c>
-      <c r="C50" s="5">
-        <f t="shared" ref="C50:E50" si="12">C36/C43</f>
-        <v>3.1719658999208633</v>
-      </c>
-      <c r="D50" s="5">
-        <f t="shared" si="12"/>
-        <v>1.5972885989670209</v>
-      </c>
-      <c r="E50" s="5">
-        <f t="shared" si="12"/>
-        <v>3.2410823452605317</v>
-      </c>
-      <c r="F50">
-        <v>3.230509665547086</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B51" s="5">
-        <f t="shared" ref="B51:E51" si="13">B37/B44</f>
-        <v>3.1563881855360334</v>
-      </c>
-      <c r="C51" s="5">
+      <c r="B55" s="4">
+        <f t="shared" ref="B55:E55" si="13">B39/B47</f>
+        <v>3.2817053279827095</v>
+      </c>
+      <c r="C55" s="4">
         <f t="shared" si="13"/>
-        <v>2.745320385106286</v>
-      </c>
-      <c r="D51" s="5">
+        <v>3.2597177210322505</v>
+      </c>
+      <c r="D55" s="4">
         <f t="shared" si="13"/>
-        <v>2.102810447790795</v>
-      </c>
-      <c r="E51" s="5">
+        <v>1.6144924304721173</v>
+      </c>
+      <c r="E55" s="4">
         <f t="shared" si="13"/>
-        <v>3.2893102683195932</v>
-      </c>
-      <c r="F51">
-        <v>3.1669197903170367</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="5">
-        <f t="shared" ref="B52:E52" si="14">B38/B45</f>
-        <v>3.5681158158449069</v>
-      </c>
-      <c r="C52" s="5">
+        <v>2.8504957125016555</v>
+      </c>
+      <c r="F55">
+        <v>3.1806869758461103</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56" s="4">
+        <f t="shared" ref="B56:E56" si="14">B40/B48</f>
+        <v>3.2024958320900643</v>
+      </c>
+      <c r="C56" s="4">
         <f t="shared" si="14"/>
-        <v>2.7665583457620087</v>
-      </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5">
+        <v>3.0799872220878788</v>
+      </c>
+      <c r="D56" s="4">
         <f t="shared" si="14"/>
-        <v>3.47408648813084</v>
-      </c>
-      <c r="F52">
-        <v>3.3263080140096926</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B53" s="5">
-        <f t="shared" ref="B53:E53" si="15">B39/B46</f>
-        <v>2.84388845526186</v>
-      </c>
-      <c r="C53" s="5">
-        <f t="shared" si="15"/>
-        <v>2.8743689058774549</v>
-      </c>
-      <c r="D53" s="5">
-        <f t="shared" si="15"/>
-        <v>1.4042624780523063</v>
-      </c>
-      <c r="E53" s="5">
-        <f t="shared" si="15"/>
-        <v>2.482345207818355</v>
-      </c>
-      <c r="F53">
-        <v>2.7736495879236229</v>
+        <v>1.7351478052706475</v>
+      </c>
+      <c r="E56" s="4">
+        <f t="shared" si="14"/>
+        <v>3.1341295472814124</v>
+      </c>
+      <c r="F56">
+        <v>3.2019962313585233</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A50:F50"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
